--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Il1b</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.190859542484898</v>
+        <v>0.197811</v>
       </c>
       <c r="H2">
-        <v>0.190859542484898</v>
+        <v>0.593433</v>
       </c>
       <c r="I2">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J2">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.875836981458424</v>
+        <v>0.1093776666666667</v>
       </c>
       <c r="N2">
-        <v>0.875836981458424</v>
+        <v>0.328133</v>
       </c>
       <c r="O2">
-        <v>0.3010463701931513</v>
+        <v>0.02919881906614821</v>
       </c>
       <c r="P2">
-        <v>0.3010463701931513</v>
+        <v>0.02919881906614821</v>
       </c>
       <c r="Q2">
-        <v>0.1671618455725089</v>
+        <v>0.021636105621</v>
       </c>
       <c r="R2">
-        <v>0.1671618455725089</v>
+        <v>0.194724950589</v>
       </c>
       <c r="S2">
-        <v>0.0003809358220667011</v>
+        <v>3.720341577266027E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003809358220667011</v>
+        <v>3.720341577266028E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.190859542484898</v>
+        <v>0.197811</v>
       </c>
       <c r="H3">
-        <v>0.190859542484898</v>
+        <v>0.593433</v>
       </c>
       <c r="I3">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J3">
-        <v>0.00126537257972017</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.03347224188975</v>
+        <v>0.987332</v>
       </c>
       <c r="N3">
-        <v>2.03347224188975</v>
+        <v>2.961996</v>
       </c>
       <c r="O3">
-        <v>0.6989536298068487</v>
+        <v>0.2635723480377003</v>
       </c>
       <c r="P3">
-        <v>0.6989536298068487</v>
+        <v>0.2635723480377004</v>
       </c>
       <c r="Q3">
-        <v>0.3881075817428176</v>
+        <v>0.195305130252</v>
       </c>
       <c r="R3">
-        <v>0.3881075817428176</v>
+        <v>1.757746172268</v>
       </c>
       <c r="S3">
-        <v>0.0008844367576534687</v>
+        <v>0.000335828364428316</v>
       </c>
       <c r="T3">
-        <v>0.0008844367576534687</v>
+        <v>0.0003358283644283162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.641824477826</v>
+        <v>0.197811</v>
       </c>
       <c r="H4">
-        <v>150.641824477826</v>
+        <v>0.593433</v>
       </c>
       <c r="I4">
-        <v>0.9987346274202799</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="J4">
-        <v>0.9987346274202799</v>
+        <v>0.001274141111268169</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.875836981458424</v>
+        <v>2.095161666666666</v>
       </c>
       <c r="N4">
-        <v>0.875836981458424</v>
+        <v>6.285485</v>
       </c>
       <c r="O4">
-        <v>0.3010463701931513</v>
+        <v>0.5593120449878206</v>
       </c>
       <c r="P4">
-        <v>0.3010463701931513</v>
+        <v>0.5593120449878206</v>
       </c>
       <c r="Q4">
-        <v>131.9376808320488</v>
+        <v>0.4144460244449999</v>
       </c>
       <c r="R4">
-        <v>131.9376808320488</v>
+        <v>3.730014220005</v>
       </c>
       <c r="S4">
-        <v>0.3006654343710846</v>
+        <v>0.0007126424705464538</v>
       </c>
       <c r="T4">
-        <v>0.3006654343710846</v>
+        <v>0.0007126424705464539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.197811</v>
+      </c>
+      <c r="H5">
+        <v>0.593433</v>
+      </c>
+      <c r="I5">
+        <v>0.001274141111268169</v>
+      </c>
+      <c r="J5">
+        <v>0.001274141111268169</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.5540906666666666</v>
+      </c>
+      <c r="N5">
+        <v>1.662272</v>
+      </c>
+      <c r="O5">
+        <v>0.1479167879083308</v>
+      </c>
+      <c r="P5">
+        <v>0.1479167879083308</v>
+      </c>
+      <c r="Q5">
+        <v>0.109605228864</v>
+      </c>
+      <c r="R5">
+        <v>0.986447059776</v>
+      </c>
+      <c r="S5">
+        <v>0.0001884668605207386</v>
+      </c>
+      <c r="T5">
+        <v>0.0001884668605207387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>154.0066273333333</v>
+      </c>
+      <c r="H6">
+        <v>462.0198820000001</v>
+      </c>
+      <c r="I6">
+        <v>0.9919881871744044</v>
+      </c>
+      <c r="J6">
+        <v>0.9919881871744045</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1093776666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.328133</v>
+      </c>
+      <c r="O6">
+        <v>0.02919881906614821</v>
+      </c>
+      <c r="P6">
+        <v>0.02919881906614821</v>
+      </c>
+      <c r="Q6">
+        <v>16.84488554892289</v>
+      </c>
+      <c r="R6">
+        <v>151.603969940306</v>
+      </c>
+      <c r="S6">
+        <v>0.02896488359306179</v>
+      </c>
+      <c r="T6">
+        <v>0.0289648835930618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>154.0066273333333</v>
+      </c>
+      <c r="H7">
+        <v>462.0198820000001</v>
+      </c>
+      <c r="I7">
+        <v>0.9919881871744044</v>
+      </c>
+      <c r="J7">
+        <v>0.9919881871744045</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.987332</v>
+      </c>
+      <c r="N7">
+        <v>2.961996</v>
+      </c>
+      <c r="O7">
+        <v>0.2635723480377003</v>
+      </c>
+      <c r="P7">
+        <v>0.2635723480377004</v>
+      </c>
+      <c r="Q7">
+        <v>152.0556713782747</v>
+      </c>
+      <c r="R7">
+        <v>1368.501042404472</v>
+      </c>
+      <c r="S7">
+        <v>0.2614606557192195</v>
+      </c>
+      <c r="T7">
+        <v>0.2614606557192196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>154.0066273333333</v>
+      </c>
+      <c r="H8">
+        <v>462.0198820000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9919881871744044</v>
+      </c>
+      <c r="J8">
+        <v>0.9919881871744045</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.095161666666666</v>
+      </c>
+      <c r="N8">
+        <v>6.285485</v>
+      </c>
+      <c r="O8">
+        <v>0.5593120449878206</v>
+      </c>
+      <c r="P8">
+        <v>0.5593120449878206</v>
+      </c>
+      <c r="Q8">
+        <v>322.6687820014188</v>
+      </c>
+      <c r="R8">
+        <v>2904.01903801277</v>
+      </c>
+      <c r="S8">
+        <v>0.5548309415722771</v>
+      </c>
+      <c r="T8">
+        <v>0.5548309415722772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>154.0066273333333</v>
+      </c>
+      <c r="H9">
+        <v>462.0198820000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9919881871744044</v>
+      </c>
+      <c r="J9">
+        <v>0.9919881871744045</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5540906666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.662272</v>
+      </c>
+      <c r="O9">
+        <v>0.1479167879083308</v>
+      </c>
+      <c r="P9">
+        <v>0.1479167879083308</v>
+      </c>
+      <c r="Q9">
+        <v>85.33363481021155</v>
+      </c>
+      <c r="R9">
+        <v>768.0027132919041</v>
+      </c>
+      <c r="S9">
+        <v>0.1467317062898459</v>
+      </c>
+      <c r="T9">
+        <v>0.1467317062898459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.13808</v>
+      </c>
+      <c r="I10">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J10">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1093776666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.328133</v>
+      </c>
+      <c r="O10">
+        <v>0.02919881906614821</v>
+      </c>
+      <c r="P10">
+        <v>0.02919881906614821</v>
+      </c>
+      <c r="Q10">
+        <v>0.1144119560711111</v>
+      </c>
+      <c r="R10">
+        <v>1.02970760464</v>
+      </c>
+      <c r="S10">
+        <v>0.0001967320573137486</v>
+      </c>
+      <c r="T10">
+        <v>0.0001967320573137486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.13808</v>
+      </c>
+      <c r="I11">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J11">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.987332</v>
+      </c>
+      <c r="N11">
+        <v>2.961996</v>
+      </c>
+      <c r="O11">
+        <v>0.2635723480377003</v>
+      </c>
+      <c r="P11">
+        <v>0.2635723480377004</v>
+      </c>
+      <c r="Q11">
+        <v>1.032775600853333</v>
+      </c>
+      <c r="R11">
+        <v>9.294980407680001</v>
+      </c>
+      <c r="S11">
+        <v>0.001775863954052454</v>
+      </c>
+      <c r="T11">
+        <v>0.001775863954052455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>150.641824477826</v>
-      </c>
-      <c r="H5">
-        <v>150.641824477826</v>
-      </c>
-      <c r="I5">
-        <v>0.9987346274202799</v>
-      </c>
-      <c r="J5">
-        <v>0.9987346274202799</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.03347224188975</v>
-      </c>
-      <c r="N5">
-        <v>2.03347224188975</v>
-      </c>
-      <c r="O5">
-        <v>0.6989536298068487</v>
-      </c>
-      <c r="P5">
-        <v>0.6989536298068487</v>
-      </c>
-      <c r="Q5">
-        <v>306.325968543287</v>
-      </c>
-      <c r="R5">
-        <v>306.325968543287</v>
-      </c>
-      <c r="S5">
-        <v>0.6980691930491952</v>
-      </c>
-      <c r="T5">
-        <v>0.6980691930491952</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.13808</v>
+      </c>
+      <c r="I12">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J12">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.095161666666666</v>
+      </c>
+      <c r="N12">
+        <v>6.285485</v>
+      </c>
+      <c r="O12">
+        <v>0.5593120449878206</v>
+      </c>
+      <c r="P12">
+        <v>0.5593120449878206</v>
+      </c>
+      <c r="Q12">
+        <v>2.191594974311111</v>
+      </c>
+      <c r="R12">
+        <v>19.7243547688</v>
+      </c>
+      <c r="S12">
+        <v>0.003768460944997019</v>
+      </c>
+      <c r="T12">
+        <v>0.003768460944997019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>1.046026666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.13808</v>
+      </c>
+      <c r="I13">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="J13">
+        <v>0.006737671714327339</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.5540906666666666</v>
+      </c>
+      <c r="N13">
+        <v>1.662272</v>
+      </c>
+      <c r="O13">
+        <v>0.1479167879083308</v>
+      </c>
+      <c r="P13">
+        <v>0.1479167879083308</v>
+      </c>
+      <c r="Q13">
+        <v>0.5795936130844443</v>
+      </c>
+      <c r="R13">
+        <v>5.21634251776</v>
+      </c>
+      <c r="S13">
+        <v>0.0009966147579641167</v>
+      </c>
+      <c r="T13">
+        <v>0.0009966147579641167</v>
       </c>
     </row>
   </sheetData>
